--- a/Ps2 games.xlsx
+++ b/Ps2 games.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection'!$A$1:$I$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Collection'!$A$1:$I$213</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Summary'!$A$1:$B$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CollectionTable" displayName="CollectionTable" ref="A1:I212" headerRowCount="1">
-  <autoFilter ref="A1:I212"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CollectionTable" displayName="CollectionTable" ref="A1:I213" headerRowCount="1">
+  <autoFilter ref="A1:I213"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Platform"/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tomb Raider II</t>
+          <t>Sync test c1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WIP3OUT</t>
+          <t>Tomb Raider II</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1580,35 +1580,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PS2</t>
+          <t>PS1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>.hack: Infection</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1st Edition</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>WIP3OUT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>DVD</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1624,17 +1608,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>.hack: Mutation</t>
+          <t>.hack: Infection</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1st Edition/ENG</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1648,11 +1632,7 @@
           <t>DVD</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>To sell</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1667,22 +1647,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>.hack: Outbreak</t>
+          <t>.hack: Mutation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>1st Edition/ENG</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1691,7 +1671,11 @@
           <t>DVD</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>To sell</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1706,26 +1690,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alla Ricerca di Nemo</t>
+          <t>.hack: Outbreak</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1741,12 +1729,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ape Escape 2</t>
+          <t>Alla Ricerca di Nemo</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1756,7 +1744,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1776,7 +1764,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ape Escape 3</t>
+          <t>Ape Escape 2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1786,7 +1774,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1811,30 +1799,26 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aqua Aqua: Wetrix 2</t>
+          <t>Ape Escape 3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>4.8</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -1850,26 +1834,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Battlefield 2: Modern Combat</t>
+          <t>Aqua Aqua: Wetrix 2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1885,7 +1873,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Beyond Good &amp; Evil</t>
+          <t>Battlefield 2: Modern Combat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1895,21 +1883,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Regenerated</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1924,7 +1908,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brave: Alla Ricerca di Spirito Danzante</t>
+          <t>Beyond Good &amp; Evil</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1934,21 +1918,21 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Regenerated</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1963,7 +1947,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Broken Sword: Il sonno del drago</t>
+          <t>Brave: Alla Ricerca di Spirito Danzante</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1982,12 +1966,12 @@
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Repair internal case</t>
-        </is>
-      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2002,7 +1986,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Castlevania</t>
+          <t>Broken Sword: Il sonno del drago</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2012,7 +1996,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2021,12 +2005,12 @@
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Konami flyer</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Repair internal case</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2041,7 +2025,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Champions of Norrath</t>
+          <t>Castlevania</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2056,16 +2040,16 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Manual and case serial don't match</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Konami flyer</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2080,7 +2064,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Codename: Kids Next Door</t>
+          <t>Champions of Norrath</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2090,7 +2074,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2100,7 +2084,11 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Manual and case serial don't match</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2115,22 +2103,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Crash Bandicoot: L'Ira di Cortex</t>
+          <t>Codename: Kids Next Door</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2150,12 +2138,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dark Cloud</t>
+          <t>Crash Bandicoot: L'Ira di Cortex</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2165,7 +2153,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2185,22 +2173,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Destroy All Humans!</t>
+          <t>Dark Cloud</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2220,7 +2208,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Destroy All Humans! 2</t>
+          <t>Destroy All Humans!</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2235,16 +2223,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Broken case</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2259,7 +2243,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Devil Kings</t>
+          <t>Destroy All Humans! 2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2269,17 +2253,21 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>4.8</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Broken case</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2294,7 +2282,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Devil May Cry 3</t>
+          <t>Devil Kings</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2304,7 +2292,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2313,11 +2301,7 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Monster Hunter Demo, Flyer</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2333,7 +2317,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Dragon Quest VIII: L'odissea del Re maledetto</t>
+          <t>Devil May Cry 3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2343,7 +2327,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2354,14 +2338,10 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Flyers</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Regenerated</t>
-        </is>
-      </c>
+          <t>Monster Hunter Demo, Flyer</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2376,7 +2356,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EyeToy: Play</t>
+          <t>Dragon Quest VIII: L'odissea del Re maledetto</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2386,17 +2366,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Flyers</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Regenerated</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2411,7 +2399,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Final Fantasy X</t>
+          <t>EyeToy: Play</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2421,20 +2409,16 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>DVD, Flyer</t>
-        </is>
-      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2450,7 +2434,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Final Fantasy X - 2</t>
+          <t>Final Fantasy X</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2460,18 +2444,18 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Flyer</t>
+          <t>DVD, Flyer</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -2489,7 +2473,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Final Fantasy XII</t>
+          <t>Final Fantasy X - 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2499,18 +2483,18 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Flyers</t>
+          <t>Flyer</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -2528,7 +2512,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Forbidden Siren</t>
+          <t>Final Fantasy XII</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2549,7 +2533,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Postcards</t>
+          <t>Flyers</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -2567,7 +2551,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Garfield: Salvate Arlene</t>
+          <t>Forbidden Siren</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2577,16 +2561,20 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Postcards</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2602,30 +2590,26 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Giants: Citizen Kabuto</t>
+          <t>Garfield: Salvate Arlene</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Interplay guide</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2641,17 +2625,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>God Of War</t>
+          <t>Giants: Citizen Kabuto</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2660,12 +2644,12 @@
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Interplay guide</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2680,7 +2664,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Graffiti Kingdom</t>
+          <t>God Of War</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2695,12 +2679,16 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Light circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2715,7 +2703,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Grand Theft Auto: Liberty City stories</t>
+          <t>Graffiti Kingdom</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2725,25 +2713,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Resurface</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2758,31 +2738,35 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Grand Theft Auto: San Andreas</t>
+          <t>Grand Theft Auto: Liberty City stories</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Map</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Resurface</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2797,35 +2781,31 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Grand Theft Auto: Vice City Stories</t>
+          <t>Grand Theft Auto: San Andreas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Map + Flyer</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+          <t>Map</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2840,7 +2820,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Harvest Moon</t>
+          <t>Grand Theft Auto: Vice City Stories</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2850,17 +2830,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Map + Flyer</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Light circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2875,12 +2863,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Homerun</t>
+          <t>Harvest Moon</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1st Edition/ENG</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2890,7 +2878,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2910,17 +2898,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hugo: CannonCruise</t>
+          <t>Homerun</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>1st Edition/ENG</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2945,7 +2933,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>I Simpson Il Videogioco</t>
+          <t>Hugo: CannonCruise</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2955,12 +2943,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2980,30 +2968,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ICO</t>
+          <t>I Simpson Il Videogioco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cardboard</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Postcard</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -3019,17 +3003,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Il Padrino</t>
+          <t>ICO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Cardboard</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3040,7 +3024,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Flyer</t>
+          <t>Postcard</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3058,7 +3042,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jackie Chan Adventures</t>
+          <t>Il Padrino</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3068,16 +3052,20 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -3093,22 +3081,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jak 3</t>
+          <t>Jackie Chan Adventures</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3128,35 +3116,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jak and Dexter: the Precursor Legacy</t>
+          <t>Jak 3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3171,7 +3151,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kengo: Masters of Bushido</t>
+          <t>Jak and Dexter: the Precursor Legacy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3181,17 +3161,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Light circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3206,22 +3194,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>King of Fighters 2003</t>
+          <t>Kengo: Masters of Bushido</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3241,7 +3229,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KINGDOM HEARTS</t>
+          <t>King of Fighters 2003</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3251,7 +3239,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3260,16 +3248,8 @@
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3284,7 +3264,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Kya Dark Lineage</t>
+          <t>KINGDOM HEARTS</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3294,17 +3274,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Light circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3319,22 +3307,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Kya Dark Lineage</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3354,30 +3342,26 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mafia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Map</t>
-        </is>
-      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3393,7 +3377,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mamma ho perso l'aereo</t>
+          <t>Mafia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3403,16 +3387,20 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Map</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3428,30 +3416,26 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Metal Gear Solid 2: Sons of Liberty</t>
+          <t>Mamma ho perso l'aereo</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>DVD</t>
-        </is>
-      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3467,7 +3451,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Metal Gear Solid 2: Substance</t>
+          <t>Metal Gear Solid 2: Sons of Liberty</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3506,7 +3490,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Metal Gear Solid 3: Snake Eater</t>
+          <t>Metal Gear Solid 2: Substance</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3521,11 +3505,15 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3541,17 +3529,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mortal Kombat Deadly Alliance</t>
+          <t>Metal Gear Solid 3: Snake Eater</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>White</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3560,11 +3548,7 @@
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Cheats</t>
-        </is>
-      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3580,7 +3564,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Myst III - Exile</t>
+          <t>Mortal Kombat Deadly Alliance</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3590,21 +3574,21 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cheats</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3619,7 +3603,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NBA 2K6</t>
+          <t>Myst III - Exile</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3627,11 +3611,23 @@
           <t>1st Edition</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Light circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3646,7 +3642,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NBA 2K7</t>
+          <t>NBA 2K6</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3673,12 +3669,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NBA LIVE 2002</t>
+          <t>NBA 2K7</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -3700,30 +3696,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Need For Speed Carbon</t>
+          <t>NBA LIVE 2002</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1st Edition</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Flyer + EA guide</t>
-        </is>
-      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3739,7 +3723,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Okami</t>
+          <t>Need For Speed Carbon</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3749,21 +3733,21 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Light circular scratches</t>
-        </is>
-      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Flyer + EA guide</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3778,7 +3762,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Pitfall: The Lost Expedition</t>
+          <t>Okami</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3788,19 +3772,19 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Circular scratches</t>
+          <t>Light circular scratches</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3801,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pro Evolution Soccer 2</t>
+          <t>Pitfall: The Lost Expedition</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3825,11 +3809,23 @@
           <t>1st Edition</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Circular scratches</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3844,7 +3840,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Project Zero</t>
+          <t>Pro Evolution Soccer 2</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3852,23 +3848,11 @@
           <t>1st Edition</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Test and resurface</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3883,12 +3867,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank</t>
+          <t>Project Zero</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3898,12 +3882,16 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Test and resurface</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3918,7 +3906,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank 2 Fuoco a Volontà</t>
+          <t>Ratchet &amp; Clank</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3928,20 +3916,16 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3957,7 +3941,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank 3</t>
+          <t>Ratchet &amp; Clank 2 Fuoco a Volontà</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3967,16 +3951,20 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3992,7 +3980,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ratchet: Gladiator</t>
+          <t>Ratchet &amp; Clank 3</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4002,12 +3990,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4027,16 +4015,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Rayman</t>
+          <t>Ratchet: Gladiator</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1st Edition</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4054,24 +4050,16 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Resident Evil - Code Veronica X</t>
+          <t>Rayman</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>1st Edition</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4089,7 +4077,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Resident Evil 4</t>
+          <t>Resident Evil - Code Veronica X</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4108,11 +4096,7 @@
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -4128,12 +4112,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rez</t>
+          <t>Resident Evil 4</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4147,7 +4131,11 @@
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4163,22 +4151,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rule of Rose</t>
+          <t>Rez</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4198,30 +4186,26 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Shadow of the Colossus</t>
+          <t>Rule of Rose</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Cardboard</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Postcard</t>
-        </is>
-      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4237,12 +4221,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Silent Hill 3</t>
+          <t>Shadow of the Colossus</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Cardboard</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4258,14 +4242,10 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Konami guide</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Small crack in the case</t>
-        </is>
-      </c>
+          <t>Postcard</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4280,7 +4260,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sly 2: La banda dei Ladri</t>
+          <t>Silent Hill 3</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4290,23 +4270,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Flyer</t>
+          <t>Konami guide</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Regenerated</t>
+          <t>Small crack in the case</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4303,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sly 3: L'Onore Dei Ladri</t>
+          <t>Sly 2: La banda dei Ladri</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4338,16 +4318,20 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>3D glasses</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Regenerated</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4362,7 +4346,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sly Raccoon</t>
+          <t>Sly 3: L'Onore Dei Ladri</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4377,13 +4361,13 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Codemasters guide</t>
+          <t>3D glasses</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -4401,7 +4385,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SOCOM: U.S. NAVY SEALs</t>
+          <t>Sly Raccoon</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4411,16 +4395,20 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Codemasters guide</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -4436,30 +4424,26 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Soulcalibbur III</t>
+          <t>SOCOM: U.S. NAVY SEALs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>4.5</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4475,26 +4459,30 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Spongebob e I suoi amici: Battaglia sull#isola del Vulcano</t>
+          <t>Soulcalibbur III</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Flyer</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4510,22 +4498,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Spyro: a Hero's Tail</t>
+          <t>Spongebob e I suoi amici: Battaglia sull#isola del Vulcano</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4545,22 +4533,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tak 2: Lo Scettro dei Sogni</t>
+          <t>Spyro: a Hero's Tail</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4580,7 +4568,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tak e la Magia Juju</t>
+          <t>Tak 2: Lo Scettro dei Sogni</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4590,12 +4578,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4615,7 +4603,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tak: La Grande Sfida</t>
+          <t>Tak e la Magia Juju</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4630,7 +4618,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4650,7 +4638,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>The Matrix: Path of Neo</t>
+          <t>Tak: La Grande Sfida</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4660,7 +4648,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4669,11 +4657,7 @@
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Flyer</t>
-        </is>
-      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4689,7 +4673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>The Sims 2</t>
+          <t>The Matrix: Path of Neo</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4699,25 +4683,21 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>EA guide</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
+          <t>Flyer</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4732,7 +4712,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>The Sims 2 Island</t>
+          <t>The Sims 2</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4742,17 +4722,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>EA guide</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4767,7 +4755,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The Sims 2 Pets</t>
+          <t>The Sims 2 Island</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4777,7 +4765,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4786,11 +4774,7 @@
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>EA guide</t>
-        </is>
-      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -4806,7 +4790,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>The Sniper 2</t>
+          <t>The Sims 2 Pets</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4816,7 +4800,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4825,7 +4809,11 @@
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>EA guide</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -4841,22 +4829,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Timesplitters</t>
+          <t>The Sniper 2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4876,31 +4864,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TimeSplitters 2</t>
+          <t>Timesplitters</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Regenerate</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4915,7 +4899,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TimeSplitters Future Perfect</t>
+          <t>TimeSplitters 2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4954,31 +4938,31 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tom Clancy's Splinter Cell Chaos Theory</t>
+          <t>TimeSplitters Future Perfect</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Platinum</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>EA Guide</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Regenerate</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4993,12 +4977,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Trivial Pursuit</t>
+          <t>Tom Clancy's Splinter Cell Chaos Theory</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Platinum</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5008,16 +4992,16 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>Broken case</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>EA Guide</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5032,12 +5016,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Unlimited Saga</t>
+          <t>Trivial Pursuit</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Cardboard</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5051,12 +5035,12 @@
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>DVD</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Broken case</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5071,35 +5055,31 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Viewtiful Joe</t>
+          <t>Unlimited Saga</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1st Edition</t>
+          <t>Cardboard</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Capcom guide</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Regenerate</t>
-        </is>
-      </c>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5114,7 +5094,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Viewtiful Joe 2</t>
+          <t>Viewtiful Joe</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5124,12 +5104,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -5138,7 +5118,11 @@
           <t>Capcom guide</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Regenerate</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5153,12 +5137,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Zone Of The Enders</t>
+          <t>Viewtiful Joe 2</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>1st Edition</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5174,7 +5158,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>MGS 2 Demo + Flyer</t>
+          <t>Capcom guide</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -5187,19 +5171,35 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PS4</t>
+          <t>PS2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Alex Kidd in Miracle World DX</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+          <t>Zone Of The Enders</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>MGS 2 Demo + Flyer</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Anthem</t>
+          <t>Alex Kidd in Miracle World DX</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Armored Core VI Fires of Rubicon</t>
+          <t>Anthem</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Batman Arkham Collection</t>
+          <t>Armored Core VI Fires of Rubicon</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Batman Arkham Knight</t>
+          <t>Batman Arkham Collection</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Batman Return to Arkham</t>
+          <t>Batman Arkham Knight</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Battlefield 4</t>
+          <t>Batman Return to Arkham</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BIOSHOCK The Collectioon</t>
+          <t>Battlefield 4</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Bloodborne</t>
+          <t>BIOSHOCK The Collectioon</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Crash Bandicoot It's About Time</t>
+          <t>Bloodborne</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Crash N. Sane Trilogy</t>
+          <t>Crash Bandicoot It's About Time</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Crash Team Racing: Nitro Fueled</t>
+          <t>Crash N. Sane Trilogy</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -5468,14 +5468,10 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Deluxe edition</t>
-        </is>
-      </c>
+          <t>Crash Team Racing: Nitro Fueled</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
@@ -5495,10 +5491,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Dark Souls II</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>Cyberpunk 2077</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Deluxe edition</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Dark Souls III</t>
+          <t>Dark Souls II</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Dark Souls Remastered</t>
+          <t>Dark Souls III</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Death Stranding</t>
+          <t>Dark Souls Remastered</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Destiny</t>
+          <t>Death Stranding</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DIGIMON SURVIVE</t>
+          <t>Destiny</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DisHonored 2</t>
+          <t>DIGIMON SURVIVE</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DisHonored: La morte dell'esterno</t>
+          <t>DisHonored 2</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DRAGONBALL XENOVERSE 2</t>
+          <t>DisHonored: La morte dell'esterno</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DRIVECLUB</t>
+          <t>DRAGONBALL XENOVERSE 2</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Farcry5</t>
+          <t>DRIVECLUB</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Farming Simulator</t>
+          <t>Farcry5</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FIFA18</t>
+          <t>Farming Simulator</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Final Fantasy XV Kingslaive</t>
+          <t>FIFA18</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Final Fantasz XV</t>
+          <t>Final Fantasy XV Kingslaive</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>For Honor</t>
+          <t>Final Fantasz XV</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ghost of Tsushima</t>
+          <t>For Honor</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ghostbusters Spirits Unleashed</t>
+          <t>Ghost of Tsushima</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Grim Fandango</t>
+          <t>Ghostbusters Spirits Unleashed</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hogwarts Legacy</t>
+          <t>Grim Fandango</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Horizon Zero Dawn</t>
+          <t>Hogwarts Legacy</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Immortals Fenyx Rising</t>
+          <t>Horizon Zero Dawn</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Judgement</t>
+          <t>Immortals Fenyx Rising</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>KINGDOM HEARTS III</t>
+          <t>Judgement</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Lego Avengers</t>
+          <t>KINGDOM HEARTS III</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Lego Worlds</t>
+          <t>Lego Avengers</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Little nightmares</t>
+          <t>Lego Worlds</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Made in Abyss: Binary Star Falling into Darkness</t>
+          <t>Little nightmares</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -6124,11 +6124,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>Maybe switch it with the collector</t>
-        </is>
-      </c>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6143,7 +6139,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mass Effect Andromeda</t>
+          <t>Made in Abyss: Binary Star Falling into Darkness</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -6151,7 +6147,11 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Maybe switch it with the collector</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MediEvil</t>
+          <t>Mass Effect Andromeda</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Monster Hunter: World</t>
+          <t>MediEvil</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -6197,11 +6197,7 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>Disc slightly ruined, buy the boxed version</t>
-        </is>
-      </c>
+      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6216,7 +6212,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Nier: Automata The End of Yorha Edition</t>
+          <t>Monster Hunter: World</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -6224,7 +6220,11 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Disc slightly ruined, buy the boxed version</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nioh</t>
+          <t>Nier: Automata The End of Yorha Edition</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Overwatch Origins Edition</t>
+          <t>Nioh</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank</t>
+          <t>Overwatch Origins Edition</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Red Dead Redemption II</t>
+          <t>Ratchet &amp; Clank</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Resident Evil 2</t>
+          <t>Red Dead Redemption II</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -6354,7 +6354,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Resident Evil 3</t>
+          <t>Resident Evil 2</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Resisent Evil 4</t>
+          <t>Resident Evil 3</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Shadow of The Tomb Raider</t>
+          <t>Resisent Evil 4</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SWORD ART ONLINE Hollow Realization</t>
+          <t>Shadow of The Tomb Raider</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -6446,14 +6446,10 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Terraria</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
+          <t>SWORD ART ONLINE Hollow Realization</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
@@ -6473,10 +6469,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>The Elder Scrolls V SKYRIM Special Edition</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>Terraria</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>The Evil Within</t>
+          <t>The Elder Scrolls V SKYRIM Special Edition</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>The Evil Within 2</t>
+          <t>The Evil Within</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>The Last Guardian</t>
+          <t>The Evil Within 2</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>The Last of Us Remastered</t>
+          <t>The Last Guardian</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tokyo Ghoul re</t>
+          <t>The Last of Us Remastered</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Tokyo Ghoul: re[Call to existence]</t>
+          <t>Tokyo Ghoul re</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six Siege</t>
+          <t>Tokyo Ghoul: re[Call to existence]</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tom Clancy's The Division 2 Washington D.C Edition</t>
+          <t>Tom Clancy's Rainbow Six Siege</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Until Dawn</t>
+          <t>Tom Clancy's The Division 2 Washington D.C Edition</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Watch Dogs</t>
+          <t>Until Dawn</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Watch Dogs 2</t>
+          <t>Watch Dogs</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Watch dogs Legion</t>
+          <t>Watch Dogs 2</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -6759,10 +6759,33 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>C0212</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>PS4</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Watch dogs Legion</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I212"/>
+  <autoFilter ref="A1:I213"/>
   <dataValidations count="1">
-    <dataValidation sqref="B2:B212" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B213" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PS1,PS2,PS4,DS WII"</formula1>
     </dataValidation>
   </dataValidations>
